--- a/biology/Médecine/Saidal/Saidal.xlsx
+++ b/biology/Médecine/Saidal/Saidal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Groupe Saidal (en arabe : مجمع صيدال) est un groupe pharmaceutique public algérien créé en 1982. Il est leader dans la production des médicaments en Algérie[4].
-Le groupe Saidal exporte ses produits vers la Côte d'Ivoire, Gabon, Sénégal, Cameroun, Mali, Congo, République démocratique du Congo (RDC), Niger, Togo, Bénin, Guinée-Bissau, Tchad et Mauritanie[5].
+Le Groupe Saidal (en arabe : مجمع صيدال) est un groupe pharmaceutique public algérien créé en 1982. Il est leader dans la production des médicaments en Algérie.
+Le groupe Saidal exporte ses produits vers la Côte d'Ivoire, Gabon, Sénégal, Cameroun, Mali, Congo, République démocratique du Congo (RDC), Niger, Togo, Bénin, Guinée-Bissau, Tchad et Mauritanie.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Entreprise nationale de production pharmaceutique est créée en avril 1982 suite de la restructuration de la Pharmacie centrale algérienne. En 1985, elle change de dénomination pour devenir Saidal. 
-En 1989, Saidal devient une entreprise publique économique, l'une des premières entreprises nationales à acquérir le statut de société par actions en 1993. En 1997, Saidal est transformée en groupe industriel auquel sont rattachés Biotic, Pharmal et Antibiotical[6]. 
-Le 4 janvier 2016, le Centre national de bioéquivalence du groupe, premier en Algérie, a été inauguré par le ministre de l'Industrie et des mines, Abdeslam Bouchouareb [7].
-Le 26 avril 2022, Saidal signe une convention-cadre avec l'Université Alger 1 dans le domaine de la formation des étudiants en pharmacie et les travailleurs du groupe[8].
+En 1989, Saidal devient une entreprise publique économique, l'une des premières entreprises nationales à acquérir le statut de société par actions en 1993. En 1997, Saidal est transformée en groupe industriel auquel sont rattachés Biotic, Pharmal et Antibiotical. 
+Le 4 janvier 2016, le Centre national de bioéquivalence du groupe, premier en Algérie, a été inauguré par le ministre de l'Industrie et des mines, Abdeslam Bouchouareb .
+Le 26 avril 2022, Saidal signe une convention-cadre avec l'Université Alger 1 dans le domaine de la formation des étudiants en pharmacie et les travailleurs du groupe.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Filiales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe Saidal compte quatre filiales, Biotic à El-Harrach, Somédial à Oued Smar, Pharmal à Dar El Beïda et Antibiotical à Médéa, ainsi que 9 unités de production.
 </t>
@@ -578,11 +594,13 @@
           <t>Partenariat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le 29 septembre 2021, l'Algérie s'est lancée dans la production du vaccin anti Covid 19 qui est commercialisé sous l'appellation CoronaVac. Le groupe pharmaceutique public Saidal, a été choisis par le gouvernement pour produire ce vaccin en partenariat avec la société chinoise Sinovac Biotech. Les objectifs fixés par les autorités publiques sont de vacciner 70% de la population algérienne d'ici la fin 2021 mais également se projeter dans l'exportation de ce vaccin vers l'Afrique[9].
-Le 5 mars 2024, Saidal signe un contrat avec le vietnamien Radiner, pour la production d’un produit à base de plantes utilisé pour le traitement de la toxicomanie[10].
-Le 4 mars 2024, le groupe Saidal et Groupe pharmaceutique iranien Barakat ont signés un contrat pour la fabrication de kits de dépistage de maladies telles que le cancer et le diabète. L’usine en question sera mis en construction dans l’unité du Groupe Saidal à Oran, et devrait être opérationnelle dans huit mois[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 29 septembre 2021, l'Algérie s'est lancée dans la production du vaccin anti Covid 19 qui est commercialisé sous l'appellation CoronaVac. Le groupe pharmaceutique public Saidal, a été choisis par le gouvernement pour produire ce vaccin en partenariat avec la société chinoise Sinovac Biotech. Les objectifs fixés par les autorités publiques sont de vacciner 70% de la population algérienne d'ici la fin 2021 mais également se projeter dans l'exportation de ce vaccin vers l'Afrique.
+Le 5 mars 2024, Saidal signe un contrat avec le vietnamien Radiner, pour la production d’un produit à base de plantes utilisé pour le traitement de la toxicomanie.
+Le 4 mars 2024, le groupe Saidal et Groupe pharmaceutique iranien Barakat ont signés un contrat pour la fabrication de kits de dépistage de maladies telles que le cancer et le diabète. L’usine en question sera mis en construction dans l’unité du Groupe Saidal à Oran, et devrait être opérationnelle dans huit mois.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Données financières</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe Saidal a réalisé un chiffre d’affaires de 12,7 milliards de dinars en 2011, contre 11,57 milliards de dinars en 2010, soit une hausse de 7%, et un bénéfice net de 02 milliards de dinars en 2011 contre 1,1 milliard de dinars en 2010, soit une hausse de 87%[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe Saidal a réalisé un chiffre d’affaires de 12,7 milliards de dinars en 2011, contre 11,57 milliards de dinars en 2010, soit une hausse de 7%, et un bénéfice net de 02 milliards de dinars en 2011 contre 1,1 milliard de dinars en 2010, soit une hausse de 87%.
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2022, Saidal dévoile une nouvelle identité visuelle à l'occasion du 40e anniversaire du groupe[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2022, Saidal dévoile une nouvelle identité visuelle à l'occasion du 40e anniversaire du groupe.
 			Logo de 1982 à 2022
 			Logo actuel depuis 2022.
 </t>
@@ -677,18 +699,23 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Direction de l'entreprise
-Saidal est dirigé par un Président-Directeur général :
+          <t>Direction de l'entreprise</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Saidal est dirigé par un Président-Directeur général :
 Mouloud Belkebir (1985-1991)
 Ali Aoun (1995-2008)
-Rachid Zahouani (2008-2009)[14]
+Rachid Zahouani (2008-2009)
 Arezki Aït Yahia (intérim, 2009)
 Boumédiène Derkaoui (2010-2015)
 Mohamed Hammouche (2015-2016)
 Yacine Tounsi (2016-2017)
 Mohamed Nouas (2017-2020)
-Fatouma Akacem (2020-2023)[15]
-Wassim Kouidri (depuis le 10 avril 2023)[16]</t>
+Fatouma Akacem (2020-2023)
+Wassim Kouidri (depuis le 10 avril 2023)</t>
         </is>
       </c>
     </row>
